--- a/trunk/documentacion/Casos de Uso/Matriz de Permisos.xlsx
+++ b/trunk/documentacion/Casos de Uso/Matriz de Permisos.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Dependencia de Permisos" sheetId="1" r:id="rId1"/>
+    <sheet name="Permisos Funcionales" sheetId="1" r:id="rId1"/>
     <sheet name="Explicación de Permisos" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Seguridad por Valor" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>PERMISOS</t>
   </si>
@@ -30,6 +30,18 @@
     <t>Permite Aceptar o Quitar el permiso de administrar el restaurante.
 Permite invitar a nuevos Administradores
 Permite asignar los permisos a los Administradores</t>
+  </si>
+  <si>
+    <t>Editar Admins</t>
+  </si>
+  <si>
+    <t>Crear Admins</t>
+  </si>
+  <si>
+    <t>Gestionar Menú</t>
+  </si>
+  <si>
+    <t>Definir Perfil Resto</t>
   </si>
 </sst>
 </file>
@@ -522,15 +534,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,7 +556,22 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -738,7 +765,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
